--- a/SPPSApi/Doc/Template/FS1208_EDPlanExprot.xlsx
+++ b/SPPSApi/Doc/Template/FS1208_EDPlanExprot.xlsx
@@ -302,7 +302,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -614,15 +614,26 @@
   <dimension ref="A1:EF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="30" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="74" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="92" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="136" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:136" x14ac:dyDescent="0.25">
@@ -1038,7 +1049,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPPSApi/Doc/Template/FS1208_EDPlanExprot.xlsx
+++ b/SPPSApi/Doc/Template/FS1208_EDPlanExprot.xlsx
@@ -246,11 +246,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品名（中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂</t>
+    <t>工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,19 +614,17 @@
   <dimension ref="A1:EF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -641,7 +639,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>63</v>
@@ -665,7 +663,7 @@
         <v>69</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>70</v>
